--- a/data/trans_dic/P78C4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C4_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>46,02%</t>
         </is>
       </c>
     </row>
@@ -684,19 +684,19 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,0</t>
+          <t>0,0; 75,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 88,29</t>
+          <t>9,61; 88,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>53,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>83,49%</t>
         </is>
       </c>
     </row>
@@ -739,14 +739,14 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,44; 100,0</t>
+          <t>28,88; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,02; 76,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50,81; 93,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,99; 79,08</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42,1%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>79,76%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>56,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 75,81</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>50,76; 93,8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>32,45; 78,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
